--- a/biology/Botanique/Parc_des_Échelles/Parc_des_Échelles.xlsx
+++ b/biology/Botanique/Parc_des_Échelles/Parc_des_Échelles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Parc_des_%C3%89chelles</t>
+          <t>Parc_des_Échelles</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Parc du château des Échelles est un jardin anglais situé à Ambérieu-en-Bugey dans l'Ain.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Parc_des_%C3%89chelles</t>
+          <t>Parc_des_Échelles</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc des Échelles est un jardin anglais[1] situé autour du château des Échelles, datant du XIXe siècle dans le quartier de Vareille, à Ambérieu-en-Bugey. Il est l’œuvre du paysagiste Luizet, d'Écully. Le château a vu grandir Amédée Bonnet, futur chirurgien en chef de l'Hôtel-Dieu de Lyon[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc des Échelles est un jardin anglais situé autour du château des Échelles, datant du XIXe siècle dans le quartier de Vareille, à Ambérieu-en-Bugey. Il est l’œuvre du paysagiste Luizet, d'Écully. Le château a vu grandir Amédée Bonnet, futur chirurgien en chef de l'Hôtel-Dieu de Lyon.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Parc_des_%C3%89chelles</t>
+          <t>Parc_des_Échelles</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Classement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le parc a été classé jardin remarquable par l'inventaire général du patrimoine culturel[2] mais a perdu ce label.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le parc a été classé jardin remarquable par l'inventaire général du patrimoine culturel mais a perdu ce label.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Parc_des_%C3%89chelles</t>
+          <t>Parc_des_Échelles</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le château est devenu en 2011 un centre de vacances ou de loisirs[3] et à ce titre, le parc est agrémenté de jeux pour les enfants[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le château est devenu en 2011 un centre de vacances ou de loisirs et à ce titre, le parc est agrémenté de jeux pour les enfants.
 Jusqu'en 2006, le parc a accueilli le festival Jazz dans le parc pour sa 13e et dernière édition.
 </t>
         </is>
